--- a/data/trans_orig/IP07C15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C15-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7DF26BE-2464-40EA-B682-81FFE6F4F0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF66B5E-59AC-4670-AFB3-318DF4243E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72BF7213-81C6-4B53-B0C4-3E6322D6C1FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A829062-8E34-4CFD-AA18-1F2299432BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="809">
   <si>
     <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -77,2401 +77,2395 @@
     <t>27,25%</t>
   </si>
   <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>0,32%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,62%</t>
   </si>
 </sst>
 </file>
@@ -2883,7 +2877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0243B6-B570-4CD9-B5AD-959A384528D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473871E9-77C2-417E-A21C-828D3AB54BEB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3779,10 +3773,10 @@
         <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3791,10 +3785,10 @@
         <v>2535</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>118</v>
@@ -4356,13 +4350,13 @@
         <v>15449</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -4371,10 +4365,10 @@
         <v>33502</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>188</v>
@@ -4395,7 +4389,7 @@
         <v>189</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>190</v>
@@ -4443,7 +4437,7 @@
         <v>649</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
@@ -4631,10 +4625,10 @@
         <v>217</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,10 +4646,10 @@
         <v>181</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H36" s="7">
         <v>79</v>
@@ -4664,13 +4658,13 @@
         <v>53965</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M36" s="7">
         <v>174</v>
@@ -4679,13 +4673,13 @@
         <v>117370</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4694,13 @@
         <v>5335</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -4715,10 +4709,10 @@
         <v>6838</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>232</v>
@@ -4733,10 +4727,10 @@
         <v>233</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4745,13 @@
         <v>649</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -4766,13 +4760,13 @@
         <v>2091</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4781,13 +4775,13 @@
         <v>2740</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,7 +4837,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4864,7 +4858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA3D893-1B37-4E10-8B02-6196832B8CDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85262F70-2652-4255-95ED-4503670B4E2D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4881,7 +4875,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4988,13 +4982,13 @@
         <v>4812</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5003,13 +4997,13 @@
         <v>6706</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -5018,13 +5012,13 @@
         <v>11517</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5033,13 @@
         <v>9678</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5054,13 +5048,13 @@
         <v>3011</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5069,13 +5063,13 @@
         <v>12690</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5099,13 @@
         <v>1558</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5120,13 +5114,13 @@
         <v>1558</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,7 +5156,7 @@
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5177,7 +5171,7 @@
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,7 +5207,7 @@
         <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5228,7 +5222,7 @@
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5290,13 @@
         <v>28944</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5311,13 +5305,13 @@
         <v>23554</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -5326,13 +5320,13 @@
         <v>52497</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5341,13 @@
         <v>21826</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5362,13 +5356,13 @@
         <v>17988</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -5377,13 +5371,13 @@
         <v>39814</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5392,13 @@
         <v>6717</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -5413,13 +5407,13 @@
         <v>10629</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5428,13 +5422,13 @@
         <v>17346</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,7 +5464,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5485,7 +5479,7 @@
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5515,7 @@
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5536,7 +5530,7 @@
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5598,13 @@
         <v>35627</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -5619,13 +5613,13 @@
         <v>46745</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -5634,13 +5628,13 @@
         <v>82372</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5649,13 @@
         <v>43889</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -5670,13 +5664,13 @@
         <v>33250</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>116</v>
@@ -5685,13 +5679,13 @@
         <v>77139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5700,13 @@
         <v>11672</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -5724,10 +5718,10 @@
         <v>147</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -5736,13 +5730,13 @@
         <v>27630</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5751,13 @@
         <v>2658</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5772,13 +5766,13 @@
         <v>1883</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5787,13 +5781,13 @@
         <v>4541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5802,13 @@
         <v>1321</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5829,7 +5823,7 @@
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5838,13 +5832,13 @@
         <v>1321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5906,13 @@
         <v>39726</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -5927,13 +5921,13 @@
         <v>24529</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -5942,13 +5936,13 @@
         <v>64255</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5957,13 @@
         <v>16942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -5978,13 +5972,13 @@
         <v>25741</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M23" s="7">
         <v>68</v>
@@ -5993,13 +5987,13 @@
         <v>42683</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,10 +6011,10 @@
         <v>108</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -6029,13 +6023,13 @@
         <v>12946</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -6044,13 +6038,13 @@
         <v>23248</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6059,13 @@
         <v>1187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6080,13 +6074,13 @@
         <v>1273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6095,13 +6089,13 @@
         <v>2460</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>366</v>
+        <v>239</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,7 +6116,7 @@
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6131,13 +6125,13 @@
         <v>678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>369</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -6146,13 +6140,13 @@
         <v>678</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6214,13 @@
         <v>30520</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -6235,13 +6229,13 @@
         <v>29936</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M28" s="7">
         <v>81</v>
@@ -6250,13 +6244,13 @@
         <v>60456</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6265,13 @@
         <v>35668</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -6286,13 +6280,13 @@
         <v>37363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>13</v>
+        <v>381</v>
       </c>
       <c r="M29" s="7">
         <v>96</v>
@@ -6301,13 +6295,13 @@
         <v>73031</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6316,13 @@
         <v>21495</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>71</v>
+        <v>387</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -6337,13 +6331,13 @@
         <v>17368</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -6352,13 +6346,13 @@
         <v>38863</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>395</v>
+        <v>49</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6367,13 @@
         <v>2171</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6394,7 +6388,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -6403,13 +6397,13 @@
         <v>3229</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,7 +6424,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6445,7 +6439,7 @@
         <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6460,7 +6454,7 @@
         <v>41</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6522,13 @@
         <v>139629</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H34" s="7">
         <v>187</v>
@@ -6543,13 +6537,13 @@
         <v>131470</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M34" s="7">
         <v>390</v>
@@ -6558,13 +6552,13 @@
         <v>271098</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6573,13 @@
         <v>128004</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H35" s="7">
         <v>167</v>
@@ -6594,13 +6588,13 @@
         <v>117353</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M35" s="7">
         <v>351</v>
@@ -6609,13 +6603,13 @@
         <v>245356</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6624,13 @@
         <v>50186</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H36" s="7">
         <v>83</v>
@@ -6645,13 +6639,13 @@
         <v>58459</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>431</v>
+        <v>224</v>
       </c>
       <c r="M36" s="7">
         <v>158</v>
@@ -6660,13 +6654,13 @@
         <v>108645</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,13 +6675,13 @@
         <v>6016</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -6696,13 +6690,13 @@
         <v>4214</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>438</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -6711,13 +6705,13 @@
         <v>10231</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6726,13 @@
         <v>1321</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6747,13 +6741,13 @@
         <v>678</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -6762,13 +6756,13 @@
         <v>1999</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,7 +6818,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6845,7 +6839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0797E9B6-ABE7-43F9-9EAB-DC83DDC90627}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06FCF4F-C0CF-4E5D-AFA6-1B3481914C39}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6862,7 +6856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6969,13 +6963,13 @@
         <v>7580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>445</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6984,13 +6978,13 @@
         <v>5445</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -6999,13 +6993,13 @@
         <v>13025</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7014,13 @@
         <v>2042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -7035,13 +7029,13 @@
         <v>5606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -7050,13 +7044,13 @@
         <v>7648</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7065,13 @@
         <v>2022</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -7086,13 +7080,13 @@
         <v>1672</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>469</v>
+        <v>245</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>132</v>
+        <v>464</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -7101,13 +7095,13 @@
         <v>3694</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7116,13 @@
         <v>1563</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7143,7 +7137,7 @@
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -7152,13 +7146,13 @@
         <v>1563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>471</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,7 +7188,7 @@
         <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7209,7 +7203,7 @@
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7271,13 @@
         <v>19447</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -7292,13 +7286,13 @@
         <v>16263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -7307,13 +7301,13 @@
         <v>35710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7322,13 @@
         <v>28386</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -7343,13 +7337,13 @@
         <v>28215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M11" s="7">
         <v>75</v>
@@ -7358,13 +7352,13 @@
         <v>56601</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7373,13 @@
         <v>7611</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -7394,13 +7388,13 @@
         <v>11802</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>500</v>
+        <v>176</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -7409,13 +7403,13 @@
         <v>19413</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7424,13 @@
         <v>2392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7451,7 +7445,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7460,13 +7454,13 @@
         <v>2392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,7 +7496,7 @@
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7585,13 +7579,13 @@
         <v>32585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -7600,13 +7594,13 @@
         <v>33624</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -7615,13 +7609,13 @@
         <v>66209</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7630,13 @@
         <v>55079</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -7651,13 +7645,13 @@
         <v>49902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>517</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -7666,13 +7660,13 @@
         <v>104981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7681,13 @@
         <v>12763</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -7702,13 +7696,13 @@
         <v>16320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -7717,13 +7711,13 @@
         <v>29083</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>321</v>
+        <v>530</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>533</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7732,13 @@
         <v>2297</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7753,13 +7747,13 @@
         <v>1807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -7768,13 +7762,13 @@
         <v>4104</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,7 +7789,7 @@
         <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7804,13 +7798,13 @@
         <v>1244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7819,13 +7813,13 @@
         <v>1244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7887,13 @@
         <v>33276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -7908,13 +7902,13 @@
         <v>32823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -7923,13 +7917,13 @@
         <v>66099</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7938,13 @@
         <v>32992</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -7959,13 +7953,13 @@
         <v>27342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>558</v>
+        <v>176</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M23" s="7">
         <v>88</v>
@@ -7974,13 +7968,13 @@
         <v>60334</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>562</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +7989,13 @@
         <v>6703</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>404</v>
+        <v>558</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -8010,13 +8004,13 @@
         <v>9744</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>565</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -8025,13 +8019,13 @@
         <v>16447</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +8040,13 @@
         <v>997</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8067,7 +8061,7 @@
         <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8076,13 +8070,13 @@
         <v>997</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,7 +8097,7 @@
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8118,7 +8112,7 @@
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8133,7 +8127,7 @@
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,13 +8195,13 @@
         <v>32312</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>276</v>
+        <v>570</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -8216,13 +8210,13 @@
         <v>30143</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M28" s="7">
         <v>82</v>
@@ -8231,13 +8225,13 @@
         <v>62455</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8246,13 @@
         <v>46991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -8267,13 +8261,13 @@
         <v>49459</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="M29" s="7">
         <v>128</v>
@@ -8282,13 +8276,13 @@
         <v>96449</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8297,13 @@
         <v>18748</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -8318,13 +8312,13 @@
         <v>21311</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>320</v>
+        <v>590</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -8333,13 +8327,13 @@
         <v>40059</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,13 +8348,13 @@
         <v>1477</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -8369,13 +8363,13 @@
         <v>2148</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>602</v>
+        <v>44</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -8384,13 +8378,13 @@
         <v>3624</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,7 +8405,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>605</v>
+        <v>437</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -8420,13 +8414,13 @@
         <v>824</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8435,13 +8429,13 @@
         <v>824</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8509,13 +8503,13 @@
         <v>125200</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>610</v>
+        <v>506</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="H34" s="7">
         <v>171</v>
@@ -8524,13 +8518,13 @@
         <v>118298</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="M34" s="7">
         <v>343</v>
@@ -8539,13 +8533,13 @@
         <v>243498</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8560,13 +8554,13 @@
         <v>165490</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H35" s="7">
         <v>228</v>
@@ -8575,13 +8569,13 @@
         <v>160524</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="M35" s="7">
         <v>456</v>
@@ -8590,13 +8584,13 @@
         <v>326015</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,13 +8605,13 @@
         <v>47848</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>318</v>
+        <v>622</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H36" s="7">
         <v>85</v>
@@ -8626,13 +8620,13 @@
         <v>60849</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M36" s="7">
         <v>151</v>
@@ -8641,13 +8635,13 @@
         <v>108697</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8662,13 +8656,13 @@
         <v>8725</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>159</v>
+        <v>631</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>636</v>
+        <v>363</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -8680,10 +8674,10 @@
         <v>75</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>371</v>
+        <v>602</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>506</v>
+        <v>632</v>
       </c>
       <c r="M37" s="7">
         <v>17</v>
@@ -8692,13 +8686,13 @@
         <v>12680</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>637</v>
+        <v>540</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>638</v>
+        <v>439</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8719,7 +8713,7 @@
         <v>41</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8728,13 +8722,13 @@
         <v>2067</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -8743,13 +8737,13 @@
         <v>2067</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8805,7 +8799,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -8826,7 +8820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA92BAB0-501F-48D4-A95B-1240FCF4EC25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15B7C1A-02F4-4A12-B450-B89D01897F52}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8843,7 +8837,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8950,13 +8944,13 @@
         <v>1688</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -8965,13 +8959,13 @@
         <v>1114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -8980,13 +8974,13 @@
         <v>2803</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9007,7 +9001,7 @@
         <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -9016,13 +9010,13 @@
         <v>479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -9031,13 +9025,13 @@
         <v>479</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9052,13 +9046,13 @@
         <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9073,7 +9067,7 @@
         <v>41</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -9082,13 +9076,13 @@
         <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9109,7 +9103,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9124,7 +9118,7 @@
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -9139,7 +9133,7 @@
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9160,7 +9154,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -9175,7 +9169,7 @@
         <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -9190,7 +9184,7 @@
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9258,13 +9252,13 @@
         <v>18944</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -9273,13 +9267,13 @@
         <v>10850</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -9288,13 +9282,13 @@
         <v>29793</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>662</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>451</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,13 +9303,13 @@
         <v>17738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -9324,13 +9318,13 @@
         <v>17871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -9339,13 +9333,13 @@
         <v>35608</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>672</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9360,13 +9354,13 @@
         <v>5284</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -9375,13 +9369,13 @@
         <v>3178</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -9390,13 +9384,13 @@
         <v>8462</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>681</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,7 +9411,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>683</v>
+        <v>466</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -9432,7 +9426,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -9447,7 +9441,7 @@
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9468,7 +9462,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>683</v>
+        <v>466</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9483,7 +9477,7 @@
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9498,7 +9492,7 @@
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9566,13 +9560,13 @@
         <v>42124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -9581,13 +9575,13 @@
         <v>19283</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -9596,13 +9590,13 @@
         <v>61407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9617,13 +9611,13 @@
         <v>42582</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>690</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -9632,13 +9626,13 @@
         <v>27672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>517</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>692</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -9647,13 +9641,13 @@
         <v>70255</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>694</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9668,13 +9662,13 @@
         <v>15720</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -9683,13 +9677,13 @@
         <v>8398</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>703</v>
+        <v>507</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -9698,13 +9692,13 @@
         <v>24118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>706</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9725,7 +9719,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -9734,13 +9728,13 @@
         <v>1707</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -9749,13 +9743,13 @@
         <v>1707</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>713</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9770,13 +9764,13 @@
         <v>2272</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9791,7 +9785,7 @@
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -9800,13 +9794,13 @@
         <v>2272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9874,13 +9868,13 @@
         <v>37791</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -9889,13 +9883,13 @@
         <v>22650</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -9904,13 +9898,13 @@
         <v>60442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9925,13 +9919,13 @@
         <v>20349</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>616</v>
+        <v>723</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>727</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -9940,13 +9934,13 @@
         <v>25977</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>730</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -9955,13 +9949,13 @@
         <v>46326</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,13 +9970,13 @@
         <v>4853</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -9991,13 +9985,13 @@
         <v>6881</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -10006,13 +10000,13 @@
         <v>11734</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10027,13 +10021,13 @@
         <v>858</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10057,13 +10051,13 @@
         <v>858</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10084,7 +10078,7 @@
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10114,7 +10108,7 @@
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10182,13 +10176,13 @@
         <v>23734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -10200,10 +10194,10 @@
         <v>63</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -10212,13 +10206,13 @@
         <v>46529</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>492</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10233,13 +10227,13 @@
         <v>23817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -10248,13 +10242,13 @@
         <v>27173</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>758</v>
+        <v>554</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="M29" s="7">
         <v>61</v>
@@ -10263,13 +10257,13 @@
         <v>50990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10284,13 +10278,13 @@
         <v>6475</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>370</v>
+        <v>759</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -10299,13 +10293,13 @@
         <v>5726</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -10314,13 +10308,13 @@
         <v>12201</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10335,13 +10329,13 @@
         <v>2317</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -10350,13 +10344,13 @@
         <v>789</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -10365,13 +10359,13 @@
         <v>3106</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10392,7 +10386,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10422,7 +10416,7 @@
         <v>41</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10490,13 +10484,13 @@
         <v>124281</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>784</v>
+        <v>757</v>
       </c>
       <c r="H34" s="7">
         <v>111</v>
@@ -10505,13 +10499,13 @@
         <v>76694</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="M34" s="7">
         <v>253</v>
@@ -10520,13 +10514,13 @@
         <v>200975</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10541,13 +10535,13 @@
         <v>104486</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>272</v>
+        <v>786</v>
       </c>
       <c r="H35" s="7">
         <v>123</v>
@@ -10556,13 +10550,13 @@
         <v>99172</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="M35" s="7">
         <v>244</v>
@@ -10571,13 +10565,13 @@
         <v>203658</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>485</v>
+        <v>608</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>796</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10592,13 +10586,13 @@
         <v>32967</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>79</v>
+        <v>791</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>462</v>
+        <v>793</v>
       </c>
       <c r="H36" s="7">
         <v>32</v>
@@ -10607,13 +10601,13 @@
         <v>24183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -10622,13 +10616,13 @@
         <v>57150</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>467</v>
+        <v>799</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10643,13 +10637,13 @@
         <v>3174</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>800</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>447</v>
+        <v>801</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -10661,10 +10655,10 @@
         <v>159</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>447</v>
+        <v>803</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>804</v>
+        <v>704</v>
       </c>
       <c r="M37" s="7">
         <v>8</v>
@@ -10673,13 +10667,13 @@
         <v>5671</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>537</v>
+        <v>804</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>805</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10694,13 +10688,13 @@
         <v>2272</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>806</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>807</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -10715,7 +10709,7 @@
         <v>41</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -10724,13 +10718,13 @@
         <v>2272</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10786,7 +10780,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
